--- a/rota.xlsx
+++ b/rota.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F3DCBE-0CA2-4A25-869A-0C9199D32F84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63CA05E-1155-4B58-B247-AB884DD16871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21435" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -1308,7 +1308,9 @@
   </sheetPr>
   <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
